--- a/02_paper/out_tables/tab_11.xlsx
+++ b/02_paper/out_tables/tab_11.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.55039024353027</v>
+        <v>55.75319671630859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001352711929939687</v>
+        <v>0.002612217562273145</v>
       </c>
       <c r="E2" t="n">
-        <v>183078.28</v>
+        <v>170283.25</v>
       </c>
       <c r="F2" t="n">
-        <v>60304765912.89</v>
+        <v>52428816565.82</v>
       </c>
       <c r="G2" t="n">
-        <v>245570.29</v>
+        <v>228973.4</v>
       </c>
     </row>
     <row r="3">
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28.66398811340332</v>
+        <v>45.73046493530273</v>
       </c>
       <c r="D5" t="n">
-        <v>8.318934123963118e-05</v>
+        <v>-0.0007963367970660329</v>
       </c>
       <c r="E5" t="n">
-        <v>16642.52</v>
+        <v>16766.82</v>
       </c>
       <c r="F5" t="n">
-        <v>433938128.48</v>
+        <v>456548883.69</v>
       </c>
       <c r="G5" t="n">
-        <v>20831.18</v>
+        <v>21367</v>
       </c>
     </row>
     <row r="6">
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30.33158111572266</v>
+        <v>103.652961730957</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.001261545345187187</v>
+        <v>-0.00108115270268172</v>
       </c>
       <c r="E8" t="n">
-        <v>18439.27</v>
+        <v>20910.86</v>
       </c>
       <c r="F8" t="n">
-        <v>572362061.75</v>
+        <v>746883041.4400001</v>
       </c>
       <c r="G8" t="n">
-        <v>23924.09</v>
+        <v>27329.16</v>
       </c>
     </row>
     <row r="9">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.43222236633301</v>
+        <v>36.53308868408203</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0004401037585921586</v>
+        <v>0.0009053638204932213</v>
       </c>
       <c r="E11" t="n">
-        <v>47373.96</v>
+        <v>45292.09</v>
       </c>
       <c r="F11" t="n">
-        <v>3764876212.96</v>
+        <v>3523063440.82</v>
       </c>
       <c r="G11" t="n">
-        <v>61358.59</v>
+        <v>59355.4</v>
       </c>
     </row>
     <row r="12">
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.27258682250977</v>
+        <v>46.14181518554688</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001439758110791445</v>
+        <v>-0.0009523035259917378</v>
       </c>
       <c r="E14" t="n">
-        <v>28733.41</v>
+        <v>28697.33</v>
       </c>
       <c r="F14" t="n">
-        <v>1528567252.94</v>
+        <v>1528842923.57</v>
       </c>
       <c r="G14" t="n">
-        <v>39096.9</v>
+        <v>39100.42</v>
       </c>
     </row>
     <row r="15">
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19.46551513671875</v>
+        <v>38.65018463134766</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003243602579459548</v>
+        <v>0.001645999145694077</v>
       </c>
       <c r="E17" t="n">
-        <v>6635.49</v>
+        <v>5869.81</v>
       </c>
       <c r="F17" t="n">
-        <v>68509343.84</v>
+        <v>58241539.18</v>
       </c>
       <c r="G17" t="n">
-        <v>8277.040000000001</v>
+        <v>7631.61</v>
       </c>
     </row>
     <row r="18">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>43.80609512329102</v>
+        <v>94.94509887695312</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002022218191996217</v>
+        <v>0.006342675536870956</v>
       </c>
       <c r="E20" t="n">
-        <v>66225.31</v>
+        <v>62712.49</v>
       </c>
       <c r="F20" t="n">
-        <v>6702955084.02</v>
+        <v>6899862464.42</v>
       </c>
       <c r="G20" t="n">
-        <v>81871.58</v>
+        <v>83065.41</v>
       </c>
     </row>
     <row r="21">
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.88583564758301</v>
+        <v>59.66870498657227</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0002171367523260415</v>
+        <v>0.001300502801313996</v>
       </c>
       <c r="E23" t="n">
-        <v>642591.46</v>
+        <v>581803.28</v>
       </c>
       <c r="F23" t="n">
-        <v>620592115576.4</v>
+        <v>537511143927.77</v>
       </c>
       <c r="G23" t="n">
-        <v>787776.6899999999</v>
+        <v>733151.51</v>
       </c>
     </row>
     <row r="24">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.96213340759277</v>
+        <v>52.27631759643555</v>
       </c>
       <c r="D26" t="n">
-        <v>9.097401925828308e-05</v>
+        <v>-0.0003894047986250371</v>
       </c>
       <c r="E26" t="n">
-        <v>1503996.23</v>
+        <v>1561044.52</v>
       </c>
       <c r="F26" t="n">
-        <v>3544703245524.36</v>
+        <v>4011609336136</v>
       </c>
       <c r="G26" t="n">
-        <v>1882738.23</v>
+        <v>2002900.23</v>
       </c>
     </row>
     <row r="27">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28.1987190246582</v>
+        <v>49.85737609863281</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001410897384630516</v>
+        <v>-0.00480089895427227</v>
       </c>
       <c r="E29" t="n">
-        <v>72161.99000000001</v>
+        <v>81041.14</v>
       </c>
       <c r="F29" t="n">
-        <v>9360671025.6</v>
+        <v>12156822097.55</v>
       </c>
       <c r="G29" t="n">
-        <v>96750.56</v>
+        <v>110257.98</v>
       </c>
     </row>
     <row r="30">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>24.06752586364746</v>
+        <v>38.15716171264648</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00135320657864213</v>
+        <v>0.0009937677532434464</v>
       </c>
       <c r="E32" t="n">
-        <v>158551.86</v>
+        <v>155743.2</v>
       </c>
       <c r="F32" t="n">
-        <v>39916178834.36</v>
+        <v>41517806399.2</v>
       </c>
       <c r="G32" t="n">
-        <v>199790.34</v>
+        <v>203759.19</v>
       </c>
     </row>
     <row r="33">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>65.153564453125</v>
+        <v>176.0617523193359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004443834477569908</v>
+        <v>0.0008997707045637071</v>
       </c>
       <c r="E35" t="n">
-        <v>41127.53</v>
+        <v>47582.9</v>
       </c>
       <c r="F35" t="n">
-        <v>2890464110.37</v>
+        <v>4116449550.31</v>
       </c>
       <c r="G35" t="n">
-        <v>53763.04</v>
+        <v>64159.56</v>
       </c>
     </row>
     <row r="36">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27.82997512817383</v>
+        <v>42.63175964355469</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0004066303372383118</v>
+        <v>-0.001243744976818562</v>
       </c>
       <c r="E38" t="n">
-        <v>306807.6</v>
+        <v>323809.75</v>
       </c>
       <c r="F38" t="n">
-        <v>179029756523.06</v>
+        <v>192412527867.26</v>
       </c>
       <c r="G38" t="n">
-        <v>423119.08</v>
+        <v>438648.52</v>
       </c>
     </row>
     <row r="39">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.49827194213867</v>
+        <v>95.95188140869141</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0005724348593503237</v>
+        <v>-0.000325734494253993</v>
       </c>
       <c r="E41" t="n">
-        <v>3928.27</v>
+        <v>3872.18</v>
       </c>
       <c r="F41" t="n">
-        <v>26096956.26</v>
+        <v>27405134.04</v>
       </c>
       <c r="G41" t="n">
-        <v>5108.52</v>
+        <v>5234.99</v>
       </c>
     </row>
     <row r="42">
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22.09896087646484</v>
+        <v>51.36194229125977</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.000170889514265582</v>
+        <v>0.002238974673673511</v>
       </c>
       <c r="E44" t="n">
-        <v>7743.26</v>
+        <v>8950.309999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>107929084.07</v>
+        <v>156548809.73</v>
       </c>
       <c r="G44" t="n">
-        <v>10388.89</v>
+        <v>12511.95</v>
       </c>
     </row>
     <row r="45">
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50.92218017578125</v>
+        <v>59.41709899902344</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.001502952771261334</v>
+        <v>-0.001331660547293723</v>
       </c>
       <c r="E47" t="n">
-        <v>30221.01</v>
+        <v>30594.79</v>
       </c>
       <c r="F47" t="n">
-        <v>1380715867.21</v>
+        <v>1408820046.77</v>
       </c>
       <c r="G47" t="n">
-        <v>37157.99</v>
+        <v>37534.25</v>
       </c>
     </row>
     <row r="48">
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>41.03876876831055</v>
+        <v>50.58783721923828</v>
       </c>
       <c r="D50" t="n">
-        <v>2.733069595706183e-05</v>
+        <v>-0.003008138621225953</v>
       </c>
       <c r="E50" t="n">
-        <v>97946.17999999999</v>
+        <v>100930.73</v>
       </c>
       <c r="F50" t="n">
-        <v>16044656518.72</v>
+        <v>16583740887.98</v>
       </c>
       <c r="G50" t="n">
-        <v>126667.5</v>
+        <v>128777.87</v>
       </c>
     </row>
     <row r="51">
@@ -1859,19 +1859,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19.52543640136719</v>
+        <v>49.78559112548828</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002146688522771001</v>
+        <v>0.002335714874789119</v>
       </c>
       <c r="E53" t="n">
-        <v>39145.63</v>
+        <v>36068.83</v>
       </c>
       <c r="F53" t="n">
-        <v>2824011410.36</v>
+        <v>2415599913.79</v>
       </c>
       <c r="G53" t="n">
-        <v>53141.43</v>
+        <v>49148.75</v>
       </c>
     </row>
     <row r="54">
@@ -1940,19 +1940,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>27.67423439025879</v>
+        <v>48.86166000366211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001422891626134515</v>
+        <v>-0.0004890250856988132</v>
       </c>
       <c r="E56" t="n">
-        <v>33706.51</v>
+        <v>35039.58</v>
       </c>
       <c r="F56" t="n">
-        <v>1893573835.51</v>
+        <v>2198449516.58</v>
       </c>
       <c r="G56" t="n">
-        <v>43515.21</v>
+        <v>46887.63</v>
       </c>
     </row>
     <row r="57">
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>16.19367790222168</v>
+        <v>27.86066055297852</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001169680617749691</v>
+        <v>-4.469841587706469e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>18987.16</v>
+        <v>18236.62</v>
       </c>
       <c r="F59" t="n">
-        <v>567910699.17</v>
+        <v>546938211.77</v>
       </c>
       <c r="G59" t="n">
-        <v>23830.88</v>
+        <v>23386.71</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>69.89407348632812</v>
+        <v>89.10636138916016</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.532692688982934e-05</v>
+        <v>0.0003345684963278472</v>
       </c>
       <c r="E62" t="n">
-        <v>13439.57</v>
+        <v>12686.17</v>
       </c>
       <c r="F62" t="n">
-        <v>347457488.39</v>
+        <v>316053272.34</v>
       </c>
       <c r="G62" t="n">
-        <v>18640.21</v>
+        <v>17777.89</v>
       </c>
     </row>
     <row r="63">
@@ -2183,19 +2183,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40.70097732543945</v>
+        <v>308.0718383789062</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0006304720882326365</v>
+        <v>0.004480467177927494</v>
       </c>
       <c r="E65" t="n">
-        <v>237586.86</v>
+        <v>220438.01</v>
       </c>
       <c r="F65" t="n">
-        <v>96187874363.44</v>
+        <v>85951109099.88</v>
       </c>
       <c r="G65" t="n">
-        <v>310141.7</v>
+        <v>293174.2</v>
       </c>
     </row>
     <row r="66">
@@ -2264,19 +2264,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25.93982315063477</v>
+        <v>44.11799621582031</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002598542952910066</v>
+        <v>0.003486773930490017</v>
       </c>
       <c r="E68" t="n">
-        <v>117875.05</v>
+        <v>127980.13</v>
       </c>
       <c r="F68" t="n">
-        <v>26769201535.83</v>
+        <v>32627533883.68</v>
       </c>
       <c r="G68" t="n">
-        <v>163612.96</v>
+        <v>180630.93</v>
       </c>
     </row>
     <row r="69">
